--- a/src/art-parent/art/src/main/webapp/WEB-INF/work/templates/sample-jxls6.xlsx
+++ b/src/art-parent/art/src/main/webapp/WEB-INF/work/templates/sample-jxls6.xlsx
@@ -42,21 +42,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>${row.ORDER_ID}</t>
-  </si>
-  <si>
-    <t>${row.CITY_NAME}</t>
-  </si>
-  <si>
-    <t>${row.ITEM_NAME}</t>
-  </si>
-  <si>
-    <t>${row.ORDER_DATE}</t>
-  </si>
-  <si>
-    <t>${row.VOLUME}</t>
-  </si>
-  <si>
     <t>${order_date.value}</t>
   </si>
   <si>
@@ -67,6 +52,21 @@
   </si>
   <si>
     <t>${item.labelAndDisplayValues}</t>
+  </si>
+  <si>
+    <t>${row.order_id}</t>
+  </si>
+  <si>
+    <t>${row.city_name}</t>
+  </si>
+  <si>
+    <t>${row.item_name}</t>
+  </si>
+  <si>
+    <t>${row.order_date}</t>
+  </si>
+  <si>
+    <t>${row.volume}</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,20 +478,20 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -518,19 +518,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1"/>
     </row>
